--- a/loganair/tabula-OrkneyWinter29Oct17-25Feb18.xlsx
+++ b/loganair/tabula-OrkneyWinter29Oct17-25Feb18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="64">
   <si>
     <t>Monday</t>
   </si>
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t>Papa Westray (EGEP)</t>
+  </si>
+  <si>
+    <t>Eday (EGED)</t>
   </si>
 </sst>
 </file>
@@ -1034,8 +1037,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A31" sqref="A31"/>
+      <selection pane="topRight" activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,6 +1048,7 @@
     <col min="1" max="1" width="28.7109375" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
     <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="11" max="11" width="17" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:21" x14ac:dyDescent="0.25">
@@ -1612,7 +1618,7 @@
     </row>
     <row r="55" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:23" x14ac:dyDescent="0.25">
